--- a/library/Library_hbrown_02.20.20.xlsx
+++ b/library/Library_hbrown_02.20.20.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/Desktop/6a metadata sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B380A750-CD91-0147-83C8-8B4AD2CD948F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F94F62-0CA5-C641-9C85-83DFF4D1F35F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14420" yWindow="2160" windowWidth="19180" windowHeight="16080" xr2:uid="{EF59ECE8-FFDC-AD4D-AC15-EA4DD73E2EB8}"/>
   </bookViews>
@@ -71,9 +71,6 @@
     <t>02.20.20</t>
   </si>
   <si>
-    <t>BROWN</t>
-  </si>
-  <si>
     <t>TGAGGTT</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>TACATGG</t>
+  </si>
+  <si>
+    <t>H.BROWN</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E2" sqref="E2:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -604,7 +604,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -613,7 +613,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -622,16 +622,16 @@
         <v>1</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L2" s="1" t="b">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -665,7 +665,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -674,16 +674,16 @@
         <v>2</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L3" s="1" t="b">
         <v>0</v>
@@ -694,7 +694,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -703,7 +703,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -712,16 +712,16 @@
         <v>3</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L4" s="1" t="b">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -741,7 +741,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -750,16 +750,16 @@
         <v>4</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L5" s="1" t="b">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -779,7 +779,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -788,16 +788,16 @@
         <v>5</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L6" s="1" t="b">
         <v>0</v>
@@ -808,7 +808,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -817,7 +817,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -826,16 +826,16 @@
         <v>6</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L7" s="1" t="b">
         <v>0</v>
@@ -846,7 +846,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -855,7 +855,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -864,16 +864,16 @@
         <v>7</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L8" s="1" t="b">
         <v>0</v>
@@ -884,7 +884,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -893,7 +893,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -902,16 +902,16 @@
         <v>8</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L9" s="1" t="b">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -931,7 +931,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -940,16 +940,16 @@
         <v>9</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L10" s="1" t="b">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -969,7 +969,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -978,16 +978,16 @@
         <v>10</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L11" s="1" t="b">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1007,7 +1007,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -1016,16 +1016,16 @@
         <v>11</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L12" s="1" t="b">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1045,7 +1045,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F13">
         <v>12</v>
@@ -1054,16 +1054,16 @@
         <v>12</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L13" s="1" t="b">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1083,7 +1083,7 @@
         <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F14">
         <v>13</v>
@@ -1092,16 +1092,16 @@
         <v>13</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L14" s="1" t="b">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1121,7 +1121,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F15">
         <v>14</v>
@@ -1130,16 +1130,16 @@
         <v>14</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L15" s="1" t="b">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1159,7 +1159,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F16">
         <v>15</v>
@@ -1168,16 +1168,16 @@
         <v>15</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L16" s="1" t="b">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1197,7 +1197,7 @@
         <v>12</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F17">
         <v>16</v>
@@ -1206,16 +1206,16 @@
         <v>16</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L17" s="1" t="b">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1235,7 +1235,7 @@
         <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F18">
         <v>17</v>
@@ -1244,16 +1244,16 @@
         <v>17</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L18" s="1" t="b">
         <v>0</v>
@@ -1264,7 +1264,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1273,7 +1273,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F19">
         <v>18</v>
@@ -1282,16 +1282,16 @@
         <v>18</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L19" s="1" t="b">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1311,7 +1311,7 @@
         <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F20">
         <v>19</v>
@@ -1320,16 +1320,16 @@
         <v>19</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L20" s="1" t="b">
         <v>0</v>
@@ -1340,7 +1340,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1349,7 +1349,7 @@
         <v>12</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F21">
         <v>20</v>
@@ -1358,16 +1358,16 @@
         <v>20</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L21" s="1" t="b">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1387,7 +1387,7 @@
         <v>12</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F22">
         <v>21</v>
@@ -1396,16 +1396,16 @@
         <v>21</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L22" s="1" t="b">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1425,7 +1425,7 @@
         <v>12</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F23">
         <v>22</v>
@@ -1434,16 +1434,16 @@
         <v>22</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L23" s="1" t="b">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1463,7 +1463,7 @@
         <v>12</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F24">
         <v>23</v>
@@ -1472,16 +1472,16 @@
         <v>23</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L24" s="1" t="b">
         <v>0</v>
@@ -1492,7 +1492,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1501,7 +1501,7 @@
         <v>12</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F25">
         <v>24</v>
@@ -1510,16 +1510,16 @@
         <v>24</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L25" s="1" t="b">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1539,7 +1539,7 @@
         <v>12</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F26">
         <v>25</v>
@@ -1548,16 +1548,16 @@
         <v>25</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L26" s="1" t="b">
         <v>0</v>
@@ -1568,7 +1568,7 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1577,7 +1577,7 @@
         <v>12</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F27">
         <v>26</v>
@@ -1586,16 +1586,16 @@
         <v>26</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L27" s="1" t="b">
         <v>0</v>
@@ -1605,8 +1605,8 @@
       <c r="A28" t="s">
         <v>12</v>
       </c>
-      <c r="B28" t="s">
-        <v>13</v>
+      <c r="B28" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1614,8 +1614,8 @@
       <c r="D28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E28" t="s">
-        <v>13</v>
+      <c r="E28" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="F28">
         <v>27</v>
@@ -1624,16 +1624,16 @@
         <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -1643,8 +1643,8 @@
       <c r="A29" t="s">
         <v>12</v>
       </c>
-      <c r="B29" t="s">
-        <v>13</v>
+      <c r="B29" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1652,8 +1652,8 @@
       <c r="D29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E29" t="s">
-        <v>13</v>
+      <c r="E29" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="F29">
         <v>28</v>
@@ -1662,16 +1662,16 @@
         <v>28</v>
       </c>
       <c r="H29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>

--- a/library/Library_hbrown_02.20.20.xlsx
+++ b/library/Library_hbrown_02.20.20.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/library/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E1EB01-5637-EB46-A18E-9334E599ABB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -20,172 +31,238 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="45">
-  <si>
-    <t xml:space="preserve">s2cDNADate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s2cDNAPreparer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s2cDNASampleNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">libraryDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">libraryPreparer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">librarySampleNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">index1Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">index1Sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">index2Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">index2Sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">libraryProtocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roboticLibraryPrep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02.20.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H.BROWN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TGAGGTT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIC_Index2_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAGTTG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E7420L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCTTAGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATGACAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CACCTCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATCGAGC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TACTCTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGACTGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTTGGAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCGATTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGCAGCG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCATCAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAACAAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAGGCGT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAACT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGTCCTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGGTGGC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTGTCG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTATTTG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAGTACG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACAGATA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTCAATG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAATGCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACGCGGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGAGTCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGTCGCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCAACTG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TGTTTGT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TACATGG</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="73">
+  <si>
+    <t>s2cDNADate</t>
+  </si>
+  <si>
+    <t>s2cDNAPreparer</t>
+  </si>
+  <si>
+    <t>s2cDNASampleNumber</t>
+  </si>
+  <si>
+    <t>libraryDate</t>
+  </si>
+  <si>
+    <t>libraryPreparer</t>
+  </si>
+  <si>
+    <t>librarySampleNumber</t>
+  </si>
+  <si>
+    <t>index1Name</t>
+  </si>
+  <si>
+    <t>index1Sequence</t>
+  </si>
+  <si>
+    <t>index2Name</t>
+  </si>
+  <si>
+    <t>index2Sequence</t>
+  </si>
+  <si>
+    <t>libraryProtocol</t>
+  </si>
+  <si>
+    <t>roboticLibraryPrep</t>
+  </si>
+  <si>
+    <t>02.20.20</t>
+  </si>
+  <si>
+    <t>H.BROWN</t>
+  </si>
+  <si>
+    <t>TGAGGTT</t>
+  </si>
+  <si>
+    <t>SIC_Index2_07</t>
+  </si>
+  <si>
+    <t>GAGTTG</t>
+  </si>
+  <si>
+    <t>E7420L</t>
+  </si>
+  <si>
+    <t>GCTTAGA</t>
+  </si>
+  <si>
+    <t>ATGACAG</t>
+  </si>
+  <si>
+    <t>CACCTCC</t>
+  </si>
+  <si>
+    <t>ATCGAGC</t>
+  </si>
+  <si>
+    <t>TACTCTA</t>
+  </si>
+  <si>
+    <t>AGACTGA</t>
+  </si>
+  <si>
+    <t>CTTGGAA</t>
+  </si>
+  <si>
+    <t>CCGATTA</t>
+  </si>
+  <si>
+    <t>GGCAGCG</t>
+  </si>
+  <si>
+    <t>CCATCAT</t>
+  </si>
+  <si>
+    <t>TAACAAG</t>
+  </si>
+  <si>
+    <t>GAGGCGT</t>
+  </si>
+  <si>
+    <t>TTTAACT</t>
+  </si>
+  <si>
+    <t>GGTCCTC</t>
+  </si>
+  <si>
+    <t>CGGTGGC</t>
+  </si>
+  <si>
+    <t>ACTGTCG</t>
+  </si>
+  <si>
+    <t>GTATTTG</t>
+  </si>
+  <si>
+    <t>GAGTACG</t>
+  </si>
+  <si>
+    <t>ACAGATA</t>
+  </si>
+  <si>
+    <t>CTCAATG</t>
+  </si>
+  <si>
+    <t>AAATGCA</t>
+  </si>
+  <si>
+    <t>ACGCGGG</t>
+  </si>
+  <si>
+    <t>GGAGTCC</t>
+  </si>
+  <si>
+    <t>CGTCGCT</t>
+  </si>
+  <si>
+    <t>TCAACTG</t>
+  </si>
+  <si>
+    <t>TGTTTGT</t>
+  </si>
+  <si>
+    <t>TACATGG</t>
+  </si>
+  <si>
+    <t>Index1_1</t>
+  </si>
+  <si>
+    <t>Index1_2</t>
+  </si>
+  <si>
+    <t>Index1_3</t>
+  </si>
+  <si>
+    <t>Index1_4</t>
+  </si>
+  <si>
+    <t>Index1_5</t>
+  </si>
+  <si>
+    <t>Index1_6</t>
+  </si>
+  <si>
+    <t>Index1_7</t>
+  </si>
+  <si>
+    <t>Index1_8</t>
+  </si>
+  <si>
+    <t>Index1_9</t>
+  </si>
+  <si>
+    <t>Index1_10</t>
+  </si>
+  <si>
+    <t>Index1_11</t>
+  </si>
+  <si>
+    <t>Index1_12</t>
+  </si>
+  <si>
+    <t>Index1_13</t>
+  </si>
+  <si>
+    <t>Index1_14</t>
+  </si>
+  <si>
+    <t>Index1_15</t>
+  </si>
+  <si>
+    <t>Index1_16</t>
+  </si>
+  <si>
+    <t>Index1_17</t>
+  </si>
+  <si>
+    <t>Index1_18</t>
+  </si>
+  <si>
+    <t>Index1_19</t>
+  </si>
+  <si>
+    <t>Index1_20</t>
+  </si>
+  <si>
+    <t>Index1_21</t>
+  </si>
+  <si>
+    <t>Index1_22</t>
+  </si>
+  <si>
+    <t>Index1_23</t>
+  </si>
+  <si>
+    <t>Index1_24</t>
+  </si>
+  <si>
+    <t>Index1_25</t>
+  </si>
+  <si>
+    <t>Index1_26</t>
+  </si>
+  <si>
+    <t>Index1_27</t>
+  </si>
+  <si>
+    <t>Index1_28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -210,7 +287,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -218,83 +295,345 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K:K"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="1" style="0" width="10.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="10.61"/>
+    <col min="1" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -346,14 +685,14 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -362,11 +701,11 @@
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="0" t="n">
-        <v>1</v>
+      <c r="G2" t="s">
+        <v>45</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>14</v>
@@ -374,14 +713,14 @@
       <c r="I2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L2" s="1" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="M2" s="1"/>
@@ -399,14 +738,14 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -415,11 +754,11 @@
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3" s="0" t="n">
-        <v>2</v>
+      <c r="G3" t="s">
+        <v>46</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>18</v>
@@ -427,25 +766,25 @@
       <c r="I3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L3" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -454,11 +793,11 @@
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <v>3</v>
+      <c r="G4" t="s">
+        <v>47</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>19</v>
@@ -466,25 +805,25 @@
       <c r="I4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L4" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -493,11 +832,11 @@
       <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <v>4</v>
+      <c r="G5" t="s">
+        <v>48</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>20</v>
@@ -505,25 +844,25 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L5" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -532,11 +871,11 @@
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <v>5</v>
+      <c r="G6" t="s">
+        <v>49</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>21</v>
@@ -544,25 +883,25 @@
       <c r="I6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L6" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -571,11 +910,11 @@
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>6</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <v>6</v>
+      <c r="G7" t="s">
+        <v>50</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>22</v>
@@ -583,25 +922,25 @@
       <c r="I7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" t="s">
         <v>16</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L7" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -610,11 +949,11 @@
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>7</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <v>7</v>
+      <c r="G8" t="s">
+        <v>51</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>23</v>
@@ -622,25 +961,25 @@
       <c r="I8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" t="s">
         <v>16</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L8" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -649,11 +988,11 @@
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>8</v>
       </c>
-      <c r="G9" s="0" t="n">
-        <v>8</v>
+      <c r="G9" t="s">
+        <v>52</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>24</v>
@@ -661,25 +1000,25 @@
       <c r="I9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" t="s">
         <v>16</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L9" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -688,11 +1027,11 @@
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10">
         <v>9</v>
       </c>
-      <c r="G10" s="0" t="n">
-        <v>9</v>
+      <c r="G10" t="s">
+        <v>53</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>25</v>
@@ -700,25 +1039,25 @@
       <c r="I10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" t="s">
         <v>16</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L10" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -727,11 +1066,11 @@
       <c r="E11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11">
         <v>10</v>
       </c>
-      <c r="G11" s="0" t="n">
-        <v>10</v>
+      <c r="G11" t="s">
+        <v>54</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>26</v>
@@ -739,25 +1078,25 @@
       <c r="I11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L11" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -766,11 +1105,11 @@
       <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12">
         <v>11</v>
       </c>
-      <c r="G12" s="0" t="n">
-        <v>11</v>
+      <c r="G12" t="s">
+        <v>55</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>27</v>
@@ -778,25 +1117,25 @@
       <c r="I12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="J12" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L12" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -805,11 +1144,11 @@
       <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>12</v>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>56</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>28</v>
@@ -817,25 +1156,25 @@
       <c r="I13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="J13" t="s">
         <v>16</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L13" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -844,11 +1183,11 @@
       <c r="E14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>13</v>
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>57</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>29</v>
@@ -856,25 +1195,25 @@
       <c r="I14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="J14" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L14" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -883,11 +1222,11 @@
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>14</v>
       </c>
-      <c r="G15" s="0" t="n">
-        <v>14</v>
+      <c r="G15" t="s">
+        <v>58</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>30</v>
@@ -895,25 +1234,25 @@
       <c r="I15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="0" t="s">
+      <c r="J15" t="s">
         <v>16</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L15" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -922,11 +1261,11 @@
       <c r="E16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>15</v>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>59</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>31</v>
@@ -934,25 +1273,25 @@
       <c r="I16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="J16" t="s">
         <v>16</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L16" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -961,11 +1300,11 @@
       <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>16</v>
+      <c r="F17">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>60</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>32</v>
@@ -973,25 +1312,25 @@
       <c r="I17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="0" t="s">
+      <c r="J17" t="s">
         <v>16</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L17" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1000,11 +1339,11 @@
       <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>17</v>
+      <c r="F18">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>61</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>33</v>
@@ -1012,25 +1351,25 @@
       <c r="I18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="J18" t="s">
         <v>16</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L18" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -1039,11 +1378,11 @@
       <c r="E19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19">
         <v>18</v>
       </c>
-      <c r="G19" s="0" t="n">
-        <v>18</v>
+      <c r="G19" t="s">
+        <v>62</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>34</v>
@@ -1051,25 +1390,25 @@
       <c r="I19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="0" t="s">
+      <c r="J19" t="s">
         <v>16</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L19" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1078,11 +1417,11 @@
       <c r="E20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20">
         <v>19</v>
       </c>
-      <c r="G20" s="0" t="n">
-        <v>19</v>
+      <c r="G20" t="s">
+        <v>63</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>35</v>
@@ -1090,25 +1429,25 @@
       <c r="I20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="J20" t="s">
         <v>16</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L20" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -1117,11 +1456,11 @@
       <c r="E21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21">
         <v>20</v>
       </c>
-      <c r="G21" s="0" t="n">
-        <v>20</v>
+      <c r="G21" t="s">
+        <v>64</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>36</v>
@@ -1129,25 +1468,25 @@
       <c r="I21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="0" t="s">
+      <c r="J21" t="s">
         <v>16</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L21" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1156,11 +1495,11 @@
       <c r="E22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22">
         <v>21</v>
       </c>
-      <c r="G22" s="0" t="n">
-        <v>21</v>
+      <c r="G22" t="s">
+        <v>65</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>37</v>
@@ -1168,25 +1507,25 @@
       <c r="I22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="0" t="s">
+      <c r="J22" t="s">
         <v>16</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L22" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23">
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1195,11 +1534,11 @@
       <c r="E23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23">
         <v>22</v>
       </c>
-      <c r="G23" s="0" t="n">
-        <v>22</v>
+      <c r="G23" t="s">
+        <v>66</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>38</v>
@@ -1207,25 +1546,25 @@
       <c r="I23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J23" s="0" t="s">
+      <c r="J23" t="s">
         <v>16</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L23" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L23" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1234,11 +1573,11 @@
       <c r="E24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24">
         <v>23</v>
       </c>
-      <c r="G24" s="0" t="n">
-        <v>23</v>
+      <c r="G24" t="s">
+        <v>67</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>39</v>
@@ -1246,25 +1585,25 @@
       <c r="I24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J24" s="0" t="s">
+      <c r="J24" t="s">
         <v>16</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L24" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L24" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1273,11 +1612,11 @@
       <c r="E25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25">
         <v>24</v>
       </c>
-      <c r="G25" s="0" t="n">
-        <v>24</v>
+      <c r="G25" t="s">
+        <v>68</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>40</v>
@@ -1285,25 +1624,25 @@
       <c r="I25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J25" s="0" t="s">
+      <c r="J25" t="s">
         <v>16</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L25" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L25" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1312,11 +1651,11 @@
       <c r="E26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26">
         <v>25</v>
       </c>
-      <c r="G26" s="0" t="n">
-        <v>25</v>
+      <c r="G26" t="s">
+        <v>69</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>41</v>
@@ -1324,25 +1663,25 @@
       <c r="I26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J26" s="0" t="s">
+      <c r="J26" t="s">
         <v>16</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L26" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L26" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -1351,11 +1690,11 @@
       <c r="E27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27">
         <v>26</v>
       </c>
-      <c r="G27" s="0" t="n">
-        <v>26</v>
+      <c r="G27" t="s">
+        <v>70</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>42</v>
@@ -1363,25 +1702,25 @@
       <c r="I27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J27" s="0" t="s">
+      <c r="J27" t="s">
         <v>16</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L27" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="L27" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>27</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -1390,37 +1729,37 @@
       <c r="E28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28">
         <v>27</v>
       </c>
-      <c r="G28" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="H28" s="0" t="s">
+      <c r="G28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" t="s">
         <v>43</v>
       </c>
-      <c r="I28" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="0" t="s">
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" t="s">
         <v>16</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L28" s="0" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="L28" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29">
         <v>28</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -1429,36 +1768,31 @@
       <c r="E29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29">
         <v>28</v>
       </c>
-      <c r="G29" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="H29" s="0" t="s">
+      <c r="G29" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" t="s">
         <v>44</v>
       </c>
-      <c r="I29" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="0" t="s">
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" t="s">
         <v>16</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L29" s="0" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L29" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>